--- a/database_1.xlsx
+++ b/database_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="550" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="original version" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="908">
   <si>
     <t>very high position</t>
   </si>
@@ -3217,6 +3217,12 @@
   </si>
   <si>
     <t>450nm</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>Singaporem</t>
   </si>
 </sst>
 </file>
@@ -3918,49 +3924,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>110882</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>553276</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>39145</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11921882" y="1457325"/>
-          <a:ext cx="3347519" cy="4230145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -4223,8 +4186,8 @@
   <dimension ref="A1:AL168"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K180" sqref="K180"/>
+      <pane ySplit="5" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75"/>
@@ -5798,7 +5761,7 @@
         <v>155</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>134</v>
@@ -23724,7 +23687,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="R39" sqref="R39"/>
     </sheetView>
@@ -24654,9 +24617,9 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:R334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186:D231"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -24895,6 +24858,9 @@
       </c>
       <c r="E15" s="7"/>
       <c r="G15" s="6"/>
+      <c r="K15" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="2">
@@ -25468,7 +25434,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>1980</v>
       </c>
@@ -25491,7 +25457,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>1981</v>
       </c>
@@ -25500,7 +25466,7 @@
       </c>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>1982</v>
       </c>
@@ -25509,7 +25475,7 @@
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>1983</v>
       </c>
@@ -25518,7 +25484,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>1984</v>
       </c>
@@ -25527,7 +25493,7 @@
       </c>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>1985</v>
       </c>
@@ -25536,7 +25502,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>1986</v>
       </c>
@@ -25545,7 +25511,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>1987</v>
       </c>
@@ -25554,7 +25520,7 @@
       </c>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>1988</v>
       </c>
@@ -25563,7 +25529,7 @@
       </c>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>1989</v>
       </c>
@@ -25572,7 +25538,7 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>1990</v>
       </c>
@@ -25581,7 +25547,7 @@
       </c>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>1991</v>
       </c>
@@ -25590,7 +25556,7 @@
       </c>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>1992</v>
       </c>
@@ -25599,7 +25565,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>1993</v>
       </c>
@@ -25608,7 +25574,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>1994</v>
       </c>
@@ -25617,7 +25583,7 @@
       </c>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>1995</v>
       </c>
@@ -25626,7 +25592,7 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>1996</v>
       </c>
@@ -25635,7 +25601,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>1997</v>
       </c>
@@ -25644,7 +25610,7 @@
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>1998</v>
       </c>
@@ -25653,7 +25619,7 @@
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>1999</v>
       </c>
@@ -25674,7 +25640,7 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>2000</v>
       </c>
@@ -25685,7 +25651,7 @@
       <c r="F68" s="12"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>2001</v>
       </c>
@@ -25695,7 +25661,7 @@
       <c r="E69" s="13"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>2002</v>
       </c>
@@ -25712,7 +25678,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>2003</v>
       </c>
@@ -25733,7 +25699,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>2004</v>
       </c>
@@ -25754,7 +25720,7 @@
       </c>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>2005</v>
       </c>
@@ -25765,7 +25731,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>2006</v>
       </c>
@@ -25786,7 +25752,7 @@
       </c>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>2007</v>
       </c>
@@ -25809,7 +25775,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>2008</v>
       </c>
@@ -25818,7 +25784,7 @@
       </c>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>2009</v>
       </c>
@@ -25835,7 +25801,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>2010</v>
       </c>
@@ -25859,7 +25825,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>2011</v>
       </c>
@@ -25876,7 +25842,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>2012</v>
       </c>
@@ -25891,7 +25857,7 @@
       </c>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>2013</v>
       </c>
@@ -25912,7 +25878,7 @@
       </c>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>2014</v>
       </c>
@@ -25927,7 +25893,7 @@
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>2015</v>
       </c>
@@ -25951,7 +25917,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>2016</v>
       </c>
@@ -25966,7 +25932,7 @@
       </c>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>2017</v>
       </c>
@@ -25987,7 +25953,7 @@
       </c>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>2018</v>
       </c>
@@ -26010,7 +25976,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>2019</v>
       </c>
@@ -26026,7 +25992,7 @@
       <c r="F87" s="14"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>2020</v>
       </c>
@@ -26047,7 +26013,7 @@
       </c>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:8" ht="33.950000000000003" hidden="1" customHeight="1">
+    <row r="89" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A89" s="2">
         <v>2021</v>
       </c>
@@ -26070,7 +26036,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>2022</v>
       </c>
@@ -26091,7 +26057,7 @@
       </c>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>2023</v>
       </c>
@@ -26106,7 +26072,7 @@
       </c>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>2024</v>
       </c>
@@ -26129,7 +26095,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>2025</v>
       </c>
@@ -27484,7 +27450,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="2">
         <v>1980</v>
       </c>
@@ -27496,7 +27462,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="19"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="2">
         <v>1981</v>
       </c>
@@ -27508,7 +27474,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="19"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="2">
         <v>1982</v>
       </c>
@@ -27520,7 +27486,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="19"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="2">
         <v>1983</v>
       </c>
@@ -27532,7 +27498,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="19"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="2">
         <v>1984</v>
       </c>
@@ -27550,7 +27516,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="2">
         <v>1985</v>
       </c>
@@ -27561,7 +27527,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="11"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="2">
         <v>1986</v>
       </c>
@@ -27579,7 +27545,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="2">
         <v>1987</v>
       </c>
@@ -27590,7 +27556,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="11"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194" s="2">
         <v>1988</v>
       </c>
@@ -27601,7 +27567,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195" s="2">
         <v>1989</v>
       </c>
@@ -27612,7 +27578,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="2">
         <v>1990</v>
       </c>
@@ -27623,7 +27589,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="11"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="2">
         <v>1991</v>
       </c>
@@ -27634,7 +27600,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="11"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="2">
         <v>1992</v>
       </c>
@@ -27645,7 +27611,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="11"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="2">
         <v>1993</v>
       </c>
@@ -27656,7 +27622,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="2">
         <v>1994</v>
       </c>
@@ -27667,7 +27633,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="11"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="2">
         <v>1995</v>
       </c>
@@ -27678,7 +27644,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="11"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="2">
         <v>1996</v>
       </c>
@@ -27689,7 +27655,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="11"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="2">
         <v>1997</v>
       </c>
@@ -27700,7 +27666,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="11"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" s="2">
         <v>1998</v>
       </c>
@@ -27711,7 +27677,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="11"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="2">
         <v>1999</v>
       </c>
@@ -27722,7 +27688,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="11"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206" s="2">
         <v>2000</v>
       </c>
@@ -27733,7 +27699,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="2">
         <v>2001</v>
       </c>
@@ -27744,7 +27710,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" s="2">
         <v>2002</v>
       </c>
@@ -27755,7 +27721,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="2">
         <v>2003</v>
       </c>
@@ -27766,7 +27732,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="2">
         <v>2004</v>
       </c>
@@ -27777,7 +27743,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="2">
         <v>2005</v>
       </c>
@@ -27788,7 +27754,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="2">
         <v>2006</v>
       </c>
@@ -27806,7 +27772,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="2">
         <v>2007</v>
       </c>
@@ -27817,7 +27783,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="2">
         <v>2008</v>
       </c>
@@ -27828,7 +27794,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="2">
         <v>2009</v>
       </c>
@@ -27839,7 +27805,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="11"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="2">
         <v>2010</v>
       </c>
@@ -27850,7 +27816,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="11"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="2">
         <v>2011</v>
       </c>
@@ -27861,7 +27827,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="11"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="2">
         <v>2012</v>
       </c>
@@ -27872,7 +27838,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="11"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="2">
         <v>2013</v>
       </c>
@@ -27883,7 +27849,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="11"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="2">
         <v>2014</v>
       </c>
@@ -27894,7 +27860,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="11"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="2">
         <v>2015</v>
       </c>
@@ -27905,7 +27871,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="11"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="2">
         <v>2016</v>
       </c>
@@ -27916,7 +27882,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="11"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="2">
         <v>2017</v>
       </c>
@@ -27927,7 +27893,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="11"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="2">
         <v>2018</v>
       </c>
@@ -27938,7 +27904,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="11"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="2">
         <v>2019</v>
       </c>
@@ -27959,7 +27925,7 @@
       </c>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="2">
         <v>2020</v>
       </c>
@@ -27973,7 +27939,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="2">
         <v>2021</v>
       </c>
@@ -27987,7 +27953,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="2">
         <v>2022</v>
       </c>
@@ -27996,7 +27962,7 @@
       </c>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="2">
         <v>2023</v>
       </c>
@@ -28008,7 +27974,7 @@
       </c>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="2">
         <v>2024</v>
       </c>
@@ -28017,7 +27983,7 @@
       </c>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="2">
         <v>2025</v>
       </c>
@@ -29076,7 +29042,7 @@
   <autoFilter ref="A1:M323">
     <filterColumn colId="1">
       <filters>
-        <filter val="India"/>
+        <filter val="China"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -29153,6 +29119,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
-  <drawing r:id="rId71"/>
 </worksheet>
 </file>